--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_02_beg.xlsx
@@ -2212,7 +2212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ash"]Before we left, the townspeople said that it was a 'more developed place'. I am unsure if our definitions of developed are the same.
+    <t xml:space="preserve">[name="Ash"]Before we left, the townspeople said that it was a 'more developed place.' I am unsure if our definitions of developed are the same.
 </t>
   </si>
   <si>
@@ -4252,7 +4252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tachanka"]알겠습니다.
+    <t xml:space="preserve">[name="Tachanka"]알았다.
 </t>
   </si>
   <si>
